--- a/Data/random_10.xlsx
+++ b/Data/random_10.xlsx
@@ -358,7 +358,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -368,7 +368,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -383,12 +383,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -413,12 +413,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -428,27 +428,27 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -458,17 +458,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -478,7 +478,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -488,17 +488,17 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -508,42 +508,42 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -553,7 +553,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -563,7 +563,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -573,27 +573,27 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -603,17 +603,17 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -623,17 +623,17 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -643,17 +643,17 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -668,17 +668,17 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -688,12 +688,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -703,27 +703,27 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -738,17 +738,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -758,7 +758,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -778,7 +778,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -788,27 +788,27 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -818,17 +818,17 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -838,12 +838,12 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
